--- a/StructureDefinition-hiv-specimen.xlsx
+++ b/StructureDefinition-hiv-specimen.xlsx
@@ -330,7 +330,7 @@
     <t>species</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/StructureDefinition/ext-specimen-collection-place}
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/ext-specimen-collection-place}
 </t>
   </si>
   <si>
